--- a/biology/Botanique/Jardin_dendrologique_de_Průhonice/Jardin_dendrologique_de_Průhonice.xlsx
+++ b/biology/Botanique/Jardin_dendrologique_de_Průhonice/Jardin_dendrologique_de_Průhonice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_dendrologique_de_Pr%C5%AFhonice</t>
+          <t>Jardin_dendrologique_de_Průhonice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin dendrologique de Průhonice est un arboretum et un centre de recherches scientifiques, dendrologiques, sylvicoles et horticoles situé à Průhonice dans le district de Prague-Ouest, en République tchèque. Il dépend de l'Institut de recherches horticoles, paysagères et ornementales Silva Tarouca, un institut de recherches public tchèque, qui l'utilise en tant que site expérimental.
-Ouvert en 1922 par la Société de dendrologie tchèque en 1922, son code international est VSUOZ[1].
-Il est distinct du Jardin botanique de Průhonice, fondé en 1963 par l'Institut de Botanique de l'Académie des Sciences et dont le code international est PRUHO[2].
+Ouvert en 1922 par la Société de dendrologie tchèque en 1922, son code international est VSUOZ.
+Il est distinct du Jardin botanique de Průhonice, fondé en 1963 par l'Institut de Botanique de l'Académie des Sciences et dont le code international est PRUHO.
 </t>
         </is>
       </c>
